--- a/content/simulator/Period 4.xlsx
+++ b/content/simulator/Period 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/GitHub/website/content/simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18E96B17-3A96-4E33-878A-1D2D89545144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{18E96B17-3A96-4E33-878A-1D2D89545144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C067FCB-C9B1-46AA-8EB9-81448B0B9C08}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{8F516968-7816-462E-B8F5-F512E2022DC1}"/>
   </bookViews>
@@ -360,7 +360,7 @@
     <definedName name="Wage.Sales.09">'[1]Model Setup'!$L$18</definedName>
     <definedName name="Wage.Sales.10">'[1]Model Setup'!$L$19</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4932,10 +4932,10 @@
             <v>12250000</v>
           </cell>
           <cell r="W547">
-            <v>5100000</v>
+            <v>8963760</v>
           </cell>
           <cell r="X547">
-            <v>5600000</v>
+            <v>10132640</v>
           </cell>
         </row>
         <row r="548">
@@ -4964,10 +4964,10 @@
             <v>875</v>
           </cell>
           <cell r="K548">
-            <v>510</v>
+            <v>100</v>
           </cell>
           <cell r="L548">
-            <v>560</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="549">
@@ -4996,15 +4996,15 @@
             <v>100000</v>
           </cell>
           <cell r="K549">
-            <v>74000</v>
+            <v>30000</v>
           </cell>
           <cell r="L549">
-            <v>82000</v>
+            <v>40000</v>
           </cell>
         </row>
         <row r="565">
           <cell r="C565">
-            <v>543.28722172178618</v>
+            <v>452.26231268649377</v>
           </cell>
         </row>
         <row r="568">
@@ -5102,10 +5102,10 @@
             <v>14000</v>
           </cell>
           <cell r="K581">
-            <v>10000</v>
+            <v>17576</v>
           </cell>
           <cell r="L581">
-            <v>10000</v>
+            <v>18094</v>
           </cell>
         </row>
         <row r="582">
@@ -5142,34 +5142,34 @@
         </row>
         <row r="583">
           <cell r="C583">
-            <v>68234</v>
+            <v>55875</v>
           </cell>
           <cell r="D583">
-            <v>40741</v>
+            <v>33104</v>
           </cell>
           <cell r="E583">
-            <v>26521</v>
+            <v>21008</v>
           </cell>
           <cell r="F583">
-            <v>25325</v>
+            <v>20439</v>
           </cell>
           <cell r="G583">
-            <v>78654</v>
+            <v>64492</v>
           </cell>
           <cell r="H583">
-            <v>194283</v>
+            <v>159690</v>
           </cell>
           <cell r="I583">
-            <v>88853</v>
+            <v>72780</v>
           </cell>
           <cell r="J583">
-            <v>64551</v>
+            <v>52652</v>
           </cell>
           <cell r="K583">
-            <v>90473</v>
+            <v>74183</v>
           </cell>
           <cell r="L583">
-            <v>95299</v>
+            <v>78146</v>
           </cell>
         </row>
         <row r="584">
@@ -5198,10 +5198,10 @@
             <v>14000</v>
           </cell>
           <cell r="K584">
-            <v>10000</v>
+            <v>17576</v>
           </cell>
           <cell r="L584">
-            <v>10000</v>
+            <v>18094</v>
           </cell>
         </row>
         <row r="626">
@@ -5230,10 +5230,10 @@
             <v>1020000</v>
           </cell>
           <cell r="W626">
-            <v>1220000</v>
+            <v>1120000</v>
           </cell>
           <cell r="X626">
-            <v>1220000</v>
+            <v>1120000</v>
           </cell>
         </row>
         <row r="647">
@@ -5262,10 +5262,10 @@
             <v>1122915.9519725558</v>
           </cell>
           <cell r="W647">
-            <v>1322915.9519725558</v>
+            <v>1222915.9519725558</v>
           </cell>
           <cell r="X647">
-            <v>1322915.9519725558</v>
+            <v>1222915.9519725558</v>
           </cell>
         </row>
         <row r="648">
@@ -5294,10 +5294,10 @@
             <v>0.44740000000000002</v>
           </cell>
           <cell r="W648">
-            <v>0.29870000000000002</v>
+            <v>0.39810000000000001</v>
           </cell>
           <cell r="X648">
-            <v>0.30499999999999999</v>
+            <v>0.40810000000000002</v>
           </cell>
         </row>
         <row r="649">
@@ -5358,10 +5358,10 @@
             <v>4202229.3434349401</v>
           </cell>
           <cell r="W651">
-            <v>1318732.8387858053</v>
+            <v>2653763.2371283267</v>
           </cell>
           <cell r="X651">
-            <v>1508343.2969628021</v>
+            <v>3094069.9639166342</v>
           </cell>
         </row>
         <row r="680">
@@ -5371,103 +5371,103 @@
         </row>
         <row r="682">
           <cell r="O682">
-            <v>1000000</v>
+            <v>5850000</v>
           </cell>
           <cell r="P682">
-            <v>1000000</v>
+            <v>8800000</v>
           </cell>
           <cell r="Q682">
-            <v>899900</v>
+            <v>4234160</v>
           </cell>
           <cell r="R682">
-            <v>1000000</v>
+            <v>12616500</v>
           </cell>
           <cell r="S682">
-            <v>1000000</v>
+            <v>7348000</v>
           </cell>
           <cell r="T682">
-            <v>1000000</v>
+            <v>9000000</v>
           </cell>
           <cell r="U682">
-            <v>1000000</v>
+            <v>41600000</v>
           </cell>
           <cell r="V682">
-            <v>1000000</v>
+            <v>31650000</v>
           </cell>
           <cell r="W682">
-            <v>1000000</v>
+            <v>1757600</v>
           </cell>
           <cell r="X682">
-            <v>1000000</v>
+            <v>1809400</v>
           </cell>
         </row>
         <row r="683">
           <cell r="C683">
-            <v>100</v>
+            <v>450</v>
           </cell>
           <cell r="D683">
-            <v>100</v>
+            <v>800</v>
           </cell>
           <cell r="E683">
-            <v>100</v>
+            <v>560</v>
           </cell>
           <cell r="F683">
-            <v>100</v>
+            <v>500</v>
           </cell>
           <cell r="G683">
-            <v>100</v>
+            <v>500</v>
           </cell>
           <cell r="H683">
-            <v>100</v>
+            <v>900</v>
           </cell>
           <cell r="I683">
-            <v>100</v>
+            <v>1300</v>
           </cell>
           <cell r="J683">
-            <v>100</v>
+            <v>1500</v>
           </cell>
           <cell r="K683">
-            <v>100</v>
+            <v>510</v>
           </cell>
           <cell r="L683">
-            <v>100</v>
+            <v>560</v>
           </cell>
         </row>
         <row r="684">
           <cell r="C684">
-            <v>20000</v>
+            <v>200000</v>
           </cell>
           <cell r="D684">
-            <v>20000</v>
+            <v>50000</v>
           </cell>
           <cell r="E684">
-            <v>20000</v>
+            <v>80000</v>
           </cell>
           <cell r="F684">
-            <v>20000</v>
+            <v>250000</v>
           </cell>
           <cell r="G684">
-            <v>20000</v>
+            <v>250000</v>
           </cell>
           <cell r="H684">
-            <v>20000</v>
+            <v>200000</v>
           </cell>
           <cell r="I684">
-            <v>20000</v>
+            <v>125000</v>
           </cell>
           <cell r="J684">
-            <v>20000</v>
+            <v>100000</v>
           </cell>
           <cell r="K684">
-            <v>20000</v>
+            <v>74000</v>
           </cell>
           <cell r="L684">
-            <v>20000</v>
+            <v>82000</v>
           </cell>
         </row>
         <row r="700">
           <cell r="C700">
-            <v>100</v>
+            <v>823.41747914953601</v>
           </cell>
         </row>
         <row r="703">
@@ -5541,34 +5541,34 @@
         </row>
         <row r="716">
           <cell r="C716">
-            <v>10000</v>
+            <v>13000</v>
           </cell>
           <cell r="D716">
-            <v>10000</v>
+            <v>11000</v>
           </cell>
           <cell r="E716">
-            <v>10000</v>
+            <v>7561</v>
           </cell>
           <cell r="F716">
-            <v>10000</v>
+            <v>25233</v>
           </cell>
           <cell r="G716">
-            <v>10000</v>
+            <v>14696</v>
           </cell>
           <cell r="H716">
             <v>10000</v>
           </cell>
           <cell r="I716">
-            <v>10000</v>
+            <v>32000</v>
           </cell>
           <cell r="J716">
-            <v>10000</v>
+            <v>21100</v>
           </cell>
           <cell r="K716">
-            <v>10000</v>
+            <v>17576</v>
           </cell>
           <cell r="L716">
-            <v>10000</v>
+            <v>18094</v>
           </cell>
         </row>
         <row r="717">
@@ -5579,7 +5579,7 @@
             <v>0</v>
           </cell>
           <cell r="E717">
-            <v>1001</v>
+            <v>0</v>
           </cell>
           <cell r="F717">
             <v>0</v>
@@ -5605,83 +5605,83 @@
         </row>
         <row r="718">
           <cell r="C718">
-            <v>30348</v>
+            <v>220425</v>
           </cell>
           <cell r="D718">
-            <v>26003</v>
+            <v>59717</v>
           </cell>
           <cell r="E718">
-            <v>8999</v>
+            <v>41004</v>
           </cell>
           <cell r="F718">
-            <v>18092</v>
+            <v>214564</v>
           </cell>
           <cell r="G718">
-            <v>40052</v>
+            <v>470921</v>
           </cell>
           <cell r="H718">
-            <v>50433</v>
+            <v>280339</v>
           </cell>
           <cell r="I718">
-            <v>38562</v>
+            <v>104457</v>
           </cell>
           <cell r="J718">
-            <v>40536</v>
+            <v>80299</v>
           </cell>
           <cell r="K718">
-            <v>36393</v>
+            <v>178291</v>
           </cell>
           <cell r="L718">
-            <v>39336</v>
+            <v>188465</v>
           </cell>
         </row>
         <row r="719">
           <cell r="C719">
-            <v>10000</v>
+            <v>13000</v>
           </cell>
           <cell r="D719">
-            <v>10000</v>
+            <v>11000</v>
           </cell>
           <cell r="E719">
-            <v>8999</v>
+            <v>7561</v>
           </cell>
           <cell r="F719">
-            <v>10000</v>
+            <v>25233</v>
           </cell>
           <cell r="G719">
-            <v>10000</v>
+            <v>14696</v>
           </cell>
           <cell r="H719">
             <v>10000</v>
           </cell>
           <cell r="I719">
-            <v>10000</v>
+            <v>32000</v>
           </cell>
           <cell r="J719">
-            <v>10000</v>
+            <v>21100</v>
           </cell>
           <cell r="K719">
-            <v>10000</v>
+            <v>17576</v>
           </cell>
           <cell r="L719">
-            <v>10000</v>
+            <v>18094</v>
           </cell>
         </row>
         <row r="761">
           <cell r="O761">
-            <v>1520000</v>
+            <v>2020000</v>
           </cell>
           <cell r="P761">
             <v>895000</v>
           </cell>
           <cell r="Q761">
-            <v>1020000</v>
+            <v>1019999</v>
           </cell>
           <cell r="R761">
-            <v>1820000</v>
+            <v>1740000</v>
           </cell>
           <cell r="S761">
-            <v>1020000</v>
+            <v>940000</v>
           </cell>
           <cell r="T761">
             <v>1020000</v>
@@ -5693,27 +5693,27 @@
             <v>1020000</v>
           </cell>
           <cell r="W761">
-            <v>1220000</v>
+            <v>1120000</v>
           </cell>
           <cell r="X761">
-            <v>1220000</v>
+            <v>1120000</v>
           </cell>
         </row>
         <row r="782">
           <cell r="O782">
-            <v>1520000</v>
+            <v>2020000</v>
           </cell>
           <cell r="P782">
             <v>895000</v>
           </cell>
           <cell r="Q782">
-            <v>1020000</v>
+            <v>1019999</v>
           </cell>
           <cell r="R782">
-            <v>1820000</v>
+            <v>1740000</v>
           </cell>
           <cell r="S782">
-            <v>1020000</v>
+            <v>940000</v>
           </cell>
           <cell r="T782">
             <v>1020000</v>
@@ -5725,106 +5725,106 @@
             <v>1020000</v>
           </cell>
           <cell r="W782">
-            <v>1220000</v>
+            <v>1120000</v>
           </cell>
           <cell r="X782">
-            <v>1220000</v>
+            <v>1120000</v>
           </cell>
         </row>
         <row r="783">
           <cell r="O783">
-            <v>-3.3999999999999998E-3</v>
+            <v>0.27779999999999999</v>
           </cell>
           <cell r="P783">
-            <v>0.1479</v>
+            <v>0.33289999999999997</v>
           </cell>
           <cell r="Q783">
-            <v>0.19869999999999999</v>
+            <v>0.32219999999999999</v>
           </cell>
           <cell r="R783">
-            <v>0.18559999999999999</v>
+            <v>0.39129999999999998</v>
           </cell>
           <cell r="S783">
-            <v>0.18709999999999999</v>
+            <v>0.33360000000000001</v>
           </cell>
           <cell r="T783">
-            <v>0.14549999999999999</v>
+            <v>0.34749999999999998</v>
           </cell>
           <cell r="U783">
-            <v>0.13239999999999999</v>
+            <v>0.45100000000000001</v>
           </cell>
           <cell r="V783">
-            <v>0.23050000000000001</v>
+            <v>0.48170000000000002</v>
           </cell>
           <cell r="W783">
-            <v>0.17799999999999999</v>
+            <v>0.22819999999999999</v>
           </cell>
           <cell r="X783">
-            <v>0.18099999999999999</v>
+            <v>0.2329</v>
           </cell>
         </row>
         <row r="784">
           <cell r="O784">
-            <v>7.773401809398435E-2</v>
+            <v>7.5867119697196533E-2</v>
           </cell>
           <cell r="P784">
-            <v>6.9195124533801458E-2</v>
+            <v>6.7939359105600727E-2</v>
           </cell>
           <cell r="Q784">
-            <v>7.0227857868186833E-2</v>
+            <v>6.8884331018613909E-2</v>
           </cell>
           <cell r="R784">
-            <v>7.3329862146075231E-2</v>
+            <v>7.176157015299621E-2</v>
           </cell>
           <cell r="S784">
-            <v>7.2239978848972458E-2</v>
+            <v>7.0769244750986865E-2</v>
           </cell>
           <cell r="T784">
-            <v>6.6232843532463365E-2</v>
+            <v>6.5177829051798378E-2</v>
           </cell>
           <cell r="U784">
-            <v>7.5107321686529407E-2</v>
+            <v>7.3419529141460965E-2</v>
           </cell>
           <cell r="V784">
-            <v>8.0970921039033958E-2</v>
+            <v>7.8886797167055642E-2</v>
           </cell>
           <cell r="W784">
-            <v>6.6778236705851562E-2</v>
+            <v>7.1621717219835956E-2</v>
           </cell>
           <cell r="X784">
-            <v>6.7897560223722148E-2</v>
+            <v>7.3825258201466834E-2</v>
           </cell>
         </row>
         <row r="786">
           <cell r="O786">
-            <v>-598662.03370703768</v>
+            <v>2182089.4912258424</v>
           </cell>
           <cell r="P786">
-            <v>617715.80341540347</v>
+            <v>3401159.4041339373</v>
           </cell>
           <cell r="Q786">
-            <v>723061.41527157149</v>
+            <v>1989893.892256812</v>
           </cell>
           <cell r="R786">
-            <v>809504.01870567922</v>
+            <v>4565056.3958124276</v>
           </cell>
           <cell r="S786">
-            <v>774992.30786220357</v>
+            <v>2747473.2116012839</v>
           </cell>
           <cell r="T786">
-            <v>529174.26131024514</v>
+            <v>3295517.1635212218</v>
           </cell>
           <cell r="U786">
-            <v>790481.08682625287</v>
+            <v>14808237.603076104</v>
           </cell>
           <cell r="V786">
-            <v>1701050.3123579407</v>
+            <v>12160062.470652504</v>
           </cell>
           <cell r="W786">
-            <v>668939.76821248722</v>
+            <v>1363540.3047652759</v>
           </cell>
           <cell r="X786">
-            <v>736119.54764895083</v>
+            <v>1532937.1668983486</v>
           </cell>
         </row>
         <row r="815">
@@ -5840,7 +5840,7 @@
             <v>1000000</v>
           </cell>
           <cell r="Q817">
-            <v>1100100</v>
+            <v>812300</v>
           </cell>
           <cell r="R817">
             <v>1000000</v>
@@ -5857,11 +5857,11 @@
           <cell r="V817">
             <v>1000000</v>
           </cell>
-          <cell r="W817">
-            <v>1000000</v>
-          </cell>
-          <cell r="X817">
-            <v>1000000</v>
+          <cell r="W817" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X817" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="818">
@@ -5935,34 +5935,34 @@
         </row>
         <row r="838">
           <cell r="C838">
-            <v>147650</v>
+            <v>232885</v>
           </cell>
           <cell r="D838">
-            <v>127035.5</v>
+            <v>162270.5</v>
           </cell>
           <cell r="E838">
-            <v>52070</v>
+            <v>37805</v>
           </cell>
           <cell r="F838">
-            <v>90716</v>
+            <v>90951</v>
           </cell>
           <cell r="G838">
-            <v>194963</v>
+            <v>195198</v>
           </cell>
           <cell r="H838">
-            <v>247122.5</v>
+            <v>432357.5</v>
           </cell>
           <cell r="I838">
-            <v>187601</v>
+            <v>275836</v>
           </cell>
           <cell r="J838">
-            <v>197361.5</v>
-          </cell>
-          <cell r="K838">
-            <v>176939.15</v>
-          </cell>
-          <cell r="L838">
-            <v>191418.35</v>
+            <v>282596.5</v>
+          </cell>
+          <cell r="K838" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="L838" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="843">
@@ -5972,34 +5972,34 @@
         </row>
         <row r="848">
           <cell r="C848">
-            <v>14280</v>
+            <v>23279</v>
           </cell>
           <cell r="D848">
-            <v>10900</v>
+            <v>14900</v>
           </cell>
           <cell r="E848">
-            <v>7804</v>
+            <v>6905</v>
           </cell>
           <cell r="F848">
-            <v>23710</v>
+            <v>37709</v>
           </cell>
           <cell r="G848">
-            <v>14227</v>
+            <v>28226</v>
           </cell>
           <cell r="H848">
-            <v>10000</v>
+            <v>16000</v>
           </cell>
           <cell r="I848">
-            <v>29800</v>
+            <v>62560</v>
           </cell>
           <cell r="J848">
-            <v>19990</v>
+            <v>53990</v>
           </cell>
           <cell r="K848">
-            <v>16819</v>
+            <v>22068</v>
           </cell>
           <cell r="L848">
-            <v>17285</v>
+            <v>22824</v>
           </cell>
         </row>
         <row r="851">
@@ -6042,7 +6042,7 @@
             <v>0</v>
           </cell>
           <cell r="E852">
-            <v>0</v>
+            <v>1877</v>
           </cell>
           <cell r="F852">
             <v>0</v>
@@ -6059,43 +6059,43 @@
           <cell r="J852">
             <v>0</v>
           </cell>
-          <cell r="K852">
-            <v>0</v>
-          </cell>
-          <cell r="L852">
-            <v>0</v>
+          <cell r="K852" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L852" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="853">
           <cell r="C853">
-            <v>30224</v>
+            <v>45750</v>
           </cell>
           <cell r="D853">
-            <v>26333</v>
+            <v>32946</v>
           </cell>
           <cell r="E853">
-            <v>11312</v>
+            <v>8123</v>
           </cell>
           <cell r="F853">
-            <v>19280</v>
+            <v>19327</v>
           </cell>
           <cell r="G853">
-            <v>38936</v>
+            <v>38979</v>
           </cell>
           <cell r="H853">
-            <v>48277</v>
+            <v>80028</v>
           </cell>
           <cell r="I853">
-            <v>37598</v>
+            <v>53327</v>
           </cell>
           <cell r="J853">
-            <v>39371</v>
-          </cell>
-          <cell r="K853">
-            <v>35649</v>
-          </cell>
-          <cell r="L853">
-            <v>38293</v>
+            <v>54508</v>
+          </cell>
+          <cell r="K853" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L853" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="854">
@@ -6106,7 +6106,7 @@
             <v>10000</v>
           </cell>
           <cell r="E854">
-            <v>11001</v>
+            <v>8123</v>
           </cell>
           <cell r="F854">
             <v>10000</v>
@@ -6123,28 +6123,28 @@
           <cell r="J854">
             <v>10000</v>
           </cell>
-          <cell r="K854">
-            <v>10000</v>
-          </cell>
-          <cell r="L854">
-            <v>10000</v>
+          <cell r="K854" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L854" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="896">
           <cell r="O896">
-            <v>1520000</v>
+            <v>2020000</v>
           </cell>
           <cell r="P896">
             <v>895000</v>
           </cell>
           <cell r="Q896">
-            <v>1020000</v>
+            <v>1019999</v>
           </cell>
           <cell r="R896">
-            <v>1820000</v>
+            <v>1740000</v>
           </cell>
           <cell r="S896">
-            <v>1020000</v>
+            <v>940000</v>
           </cell>
           <cell r="T896">
             <v>1020000</v>
@@ -6156,27 +6156,27 @@
             <v>1020000</v>
           </cell>
           <cell r="W896">
-            <v>1220000</v>
+            <v>1120000</v>
           </cell>
           <cell r="X896">
-            <v>1220000</v>
+            <v>1120000</v>
           </cell>
         </row>
         <row r="917">
           <cell r="O917">
-            <v>1520000</v>
+            <v>2020000</v>
           </cell>
           <cell r="P917">
             <v>895000</v>
           </cell>
           <cell r="Q917">
-            <v>1020000</v>
+            <v>1019999</v>
           </cell>
           <cell r="R917">
-            <v>1820000</v>
+            <v>1740000</v>
           </cell>
           <cell r="S917">
-            <v>1020000</v>
+            <v>940000</v>
           </cell>
           <cell r="T917">
             <v>1020000</v>
@@ -6187,107 +6187,107 @@
           <cell r="V917">
             <v>1020000</v>
           </cell>
-          <cell r="W917">
-            <v>1220000</v>
-          </cell>
-          <cell r="X917">
-            <v>1220000</v>
+          <cell r="W917" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X917" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="918">
           <cell r="O918">
-            <v>1.54E-2</v>
+            <v>-3.09E-2</v>
           </cell>
           <cell r="P918">
-            <v>2.1100000000000001E-2</v>
+            <v>0.13950000000000001</v>
           </cell>
           <cell r="Q918">
-            <v>4.5400000000000003E-2</v>
+            <v>0.1095</v>
           </cell>
           <cell r="R918">
-            <v>-1.41E-2</v>
+            <v>0.15909999999999999</v>
           </cell>
           <cell r="S918">
-            <v>1.6799999999999999E-2</v>
+            <v>0.1166</v>
           </cell>
           <cell r="T918">
-            <v>3.1399999999999997E-2</v>
+            <v>0.1525</v>
           </cell>
           <cell r="U918">
-            <v>-1.78E-2</v>
+            <v>0.21679999999999999</v>
           </cell>
           <cell r="V918">
-            <v>-6.9999999999999999E-4</v>
-          </cell>
-          <cell r="W918">
-            <v>6.8999999999999999E-3</v>
-          </cell>
-          <cell r="X918">
-            <v>5.1999999999999998E-3</v>
+            <v>0.21079999999999999</v>
+          </cell>
+          <cell r="W918" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X918" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="919">
           <cell r="O919">
-            <v>9.8333391486785382E-2</v>
+            <v>7.1036098511294679E-2</v>
           </cell>
           <cell r="P919">
-            <v>6.8240532821616157E-2</v>
+            <v>6.8395418577619133E-2</v>
           </cell>
           <cell r="Q919">
-            <v>6.9519653888442584E-2</v>
+            <v>6.9261502618307672E-2</v>
           </cell>
           <cell r="R919">
-            <v>7.5116956131599383E-2</v>
+            <v>7.4996441555330001E-2</v>
           </cell>
           <cell r="S919">
-            <v>7.2667449619170418E-2</v>
+            <v>7.0339484230099433E-2</v>
           </cell>
           <cell r="T919">
-            <v>7.1118124026240417E-2</v>
+            <v>6.8184789516137573E-2</v>
           </cell>
           <cell r="U919">
-            <v>0.23040527367089161</v>
+            <v>7.5405595415552001E-2</v>
           </cell>
           <cell r="V919">
-            <v>8.1734652148105782E-2</v>
+            <v>7.9389163293261539E-2</v>
           </cell>
           <cell r="W919">
-            <v>6.8285422273148405E-2</v>
+            <v>6.9406855991154703E-2</v>
           </cell>
           <cell r="X919">
-            <v>6.9172826224337847E-2</v>
+            <v>7.0169104827241216E-2</v>
           </cell>
         </row>
         <row r="921">
           <cell r="O921">
-            <v>-611939.03588243551</v>
+            <v>-1101522.8872312098</v>
           </cell>
           <cell r="P921">
-            <v>-375247.42578050459</v>
+            <v>942902.93952295498</v>
           </cell>
           <cell r="Q921">
-            <v>-141979.24094912587</v>
+            <v>336891.78862315411</v>
           </cell>
           <cell r="R921">
-            <v>-608672.14026195055</v>
+            <v>1149756.9258285316</v>
           </cell>
           <cell r="S921">
-            <v>-378883.29116504261</v>
+            <v>476184.3552924539</v>
           </cell>
           <cell r="T921">
-            <v>-270943.66673086042</v>
+            <v>1012317.954795365</v>
           </cell>
           <cell r="U921">
-            <v>-3182664.4523761906</v>
+            <v>5293985.781642654</v>
           </cell>
           <cell r="V921">
-            <v>-923071.16396524361</v>
-          </cell>
-          <cell r="W921">
-            <v>-364362.25234583585</v>
-          </cell>
-          <cell r="X921">
-            <v>-410190.79708975495</v>
+            <v>3795536.0295995618</v>
+          </cell>
+          <cell r="W921" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X921" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="950">
@@ -6303,7 +6303,7 @@
             <v>1000000</v>
           </cell>
           <cell r="Q952">
-            <v>1000000</v>
+            <v>1187700</v>
           </cell>
           <cell r="R952">
             <v>1000000</v>
@@ -6320,11 +6320,11 @@
           <cell r="V952">
             <v>1000000</v>
           </cell>
-          <cell r="W952">
-            <v>1000000</v>
-          </cell>
-          <cell r="X952">
-            <v>1000000</v>
+          <cell r="W952" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X952" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="953">
@@ -6398,34 +6398,34 @@
         </row>
         <row r="973">
           <cell r="C973">
-            <v>147650</v>
+            <v>232885</v>
           </cell>
           <cell r="D973">
-            <v>129096.95</v>
+            <v>169331.95</v>
           </cell>
           <cell r="E973">
-            <v>61628</v>
+            <v>57313</v>
           </cell>
           <cell r="F973">
-            <v>96409.400000000009</v>
+            <v>105144.40000000001</v>
           </cell>
           <cell r="G973">
-            <v>190231.7</v>
+            <v>198966.7</v>
           </cell>
           <cell r="H973">
-            <v>237175.25</v>
+            <v>412410.25</v>
           </cell>
           <cell r="I973">
-            <v>183605.9</v>
+            <v>271540.90000000002</v>
           </cell>
           <cell r="J973">
-            <v>192390.35</v>
-          </cell>
-          <cell r="K973">
-            <v>174010.23499999999</v>
-          </cell>
-          <cell r="L973">
-            <v>187041.51500000001</v>
+            <v>277625.34999999998</v>
+          </cell>
+          <cell r="K973" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="L973" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="978">
@@ -6435,34 +6435,34 @@
         </row>
         <row r="983">
           <cell r="C983">
-            <v>13852</v>
+            <v>21951</v>
           </cell>
           <cell r="D983">
-            <v>10810</v>
+            <v>14410</v>
           </cell>
           <cell r="E983">
-            <v>8023</v>
+            <v>7214</v>
           </cell>
           <cell r="F983">
-            <v>22340</v>
+            <v>34939</v>
           </cell>
           <cell r="G983">
-            <v>13805</v>
+            <v>26404</v>
           </cell>
           <cell r="H983">
-            <v>10000</v>
+            <v>15400</v>
           </cell>
           <cell r="I983">
-            <v>27820</v>
+            <v>57304</v>
           </cell>
           <cell r="J983">
-            <v>18991</v>
+            <v>49591</v>
           </cell>
           <cell r="K983">
-            <v>16138</v>
+            <v>20862</v>
           </cell>
           <cell r="L983">
-            <v>16557</v>
+            <v>21542</v>
           </cell>
         </row>
         <row r="986">
@@ -6522,43 +6522,43 @@
           <cell r="J987">
             <v>0</v>
           </cell>
-          <cell r="K987">
-            <v>0</v>
-          </cell>
-          <cell r="L987">
-            <v>0</v>
+          <cell r="K987" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L987" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="988">
           <cell r="C988">
-            <v>30627</v>
+            <v>46358</v>
           </cell>
           <cell r="D988">
-            <v>27083</v>
+            <v>34706</v>
           </cell>
           <cell r="E988">
-            <v>13534</v>
+            <v>12610</v>
           </cell>
           <cell r="F988">
-            <v>20681</v>
+            <v>22415</v>
           </cell>
           <cell r="G988">
-            <v>38583</v>
+            <v>40189</v>
           </cell>
           <cell r="H988">
-            <v>47131</v>
+            <v>77705</v>
           </cell>
           <cell r="I988">
-            <v>37359</v>
+            <v>53273</v>
           </cell>
           <cell r="J988">
-            <v>38981</v>
-          </cell>
-          <cell r="K988">
-            <v>35578</v>
-          </cell>
-          <cell r="L988">
-            <v>37994</v>
+            <v>54352</v>
+          </cell>
+          <cell r="K988" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L988" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="989">
@@ -6569,7 +6569,7 @@
             <v>10000</v>
           </cell>
           <cell r="E989">
-            <v>10000</v>
+            <v>11877</v>
           </cell>
           <cell r="F989">
             <v>10000</v>
@@ -6586,28 +6586,28 @@
           <cell r="J989">
             <v>10000</v>
           </cell>
-          <cell r="K989">
-            <v>10000</v>
-          </cell>
-          <cell r="L989">
-            <v>10000</v>
+          <cell r="K989" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L989" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1031">
           <cell r="O1031">
-            <v>1520000</v>
+            <v>2020000</v>
           </cell>
           <cell r="P1031">
             <v>895000</v>
           </cell>
           <cell r="Q1031">
-            <v>1020000</v>
+            <v>1019999</v>
           </cell>
           <cell r="R1031">
-            <v>1820000</v>
+            <v>1740000</v>
           </cell>
           <cell r="S1031">
-            <v>1020000</v>
+            <v>940000</v>
           </cell>
           <cell r="T1031">
             <v>1020000</v>
@@ -6619,138 +6619,138 @@
             <v>1020000</v>
           </cell>
           <cell r="W1031">
-            <v>1220000</v>
+            <v>1120000</v>
           </cell>
           <cell r="X1031">
-            <v>1220000</v>
+            <v>1120000</v>
           </cell>
         </row>
         <row r="1052">
-          <cell r="O1052">
-            <v>1520000</v>
-          </cell>
-          <cell r="P1052">
-            <v>895000</v>
-          </cell>
-          <cell r="Q1052">
-            <v>1020000</v>
-          </cell>
-          <cell r="R1052">
-            <v>1820000</v>
-          </cell>
-          <cell r="S1052">
-            <v>1020000</v>
+          <cell r="O1052" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P1052" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q1052" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="R1052" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="S1052" t="e">
+            <v>#VALUE!</v>
           </cell>
           <cell r="T1052">
             <v>1020000</v>
           </cell>
-          <cell r="U1052">
-            <v>2503750</v>
-          </cell>
-          <cell r="V1052">
-            <v>1020000</v>
-          </cell>
-          <cell r="W1052">
-            <v>1220000</v>
-          </cell>
-          <cell r="X1052">
-            <v>1220000</v>
+          <cell r="U1052" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="V1052" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="W1052" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1052" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1053">
           <cell r="O1053">
-            <v>1.7500000000000002E-2</v>
+            <v>-4.8999999999999998E-3</v>
           </cell>
           <cell r="P1053">
-            <v>2.1700000000000001E-2</v>
+            <v>8.8000000000000005E-3</v>
           </cell>
           <cell r="Q1053">
-            <v>4.7E-2</v>
+            <v>2.9700000000000001E-2</v>
           </cell>
           <cell r="R1053">
-            <v>-8.0000000000000002E-3</v>
+            <v>-2.2700000000000001E-2</v>
           </cell>
           <cell r="S1053">
-            <v>1.9099999999999999E-2</v>
+            <v>-1.46E-2</v>
           </cell>
           <cell r="T1053">
-            <v>3.1199999999999999E-2</v>
+            <v>5.7999999999999996E-3</v>
           </cell>
           <cell r="U1053">
-            <v>-1.34E-2</v>
+            <v>-2.1899999999999999E-2</v>
           </cell>
           <cell r="V1053">
-            <v>2.2000000000000001E-3</v>
-          </cell>
-          <cell r="W1053">
-            <v>1.12E-2</v>
-          </cell>
-          <cell r="X1053">
-            <v>9.4000000000000004E-3</v>
+            <v>-2.1899999999999999E-2</v>
+          </cell>
+          <cell r="W1053" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1053" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1054">
-          <cell r="O1054">
-            <v>7.9653937473062653E-2</v>
-          </cell>
-          <cell r="P1054">
-            <v>6.8498655729509597E-2</v>
-          </cell>
-          <cell r="Q1054">
-            <v>0.13498920803382999</v>
-          </cell>
-          <cell r="R1054">
-            <v>7.4016162335266922E-2</v>
-          </cell>
-          <cell r="S1054">
-            <v>8.0883270162131579E-2</v>
-          </cell>
-          <cell r="T1054">
-            <v>8.7057566616900686E-2</v>
-          </cell>
-          <cell r="U1054">
-            <v>8.453460253538668E-2</v>
-          </cell>
-          <cell r="V1054">
-            <v>8.0610080808023524E-2</v>
-          </cell>
-          <cell r="W1054">
-            <v>6.7946565971351958E-2</v>
-          </cell>
-          <cell r="X1054">
-            <v>6.9184736389927115E-2</v>
+          <cell r="O1054" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P1054" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q1054" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="R1054" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="S1054" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="T1054" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="U1054" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="V1054" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="W1054" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1054" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1056">
-          <cell r="O1056">
-            <v>-458614.0743999785</v>
-          </cell>
-          <cell r="P1056">
-            <v>-376432.25137745484</v>
-          </cell>
-          <cell r="Q1056">
-            <v>-529198.98202873638</v>
-          </cell>
-          <cell r="R1056">
-            <v>-529345.5143457941</v>
-          </cell>
-          <cell r="S1056">
-            <v>-419497.20539541985</v>
-          </cell>
-          <cell r="T1056">
-            <v>-386739.63282630558</v>
-          </cell>
-          <cell r="U1056">
-            <v>-1192094.3090692942</v>
-          </cell>
-          <cell r="V1056">
-            <v>-864761.2039476732</v>
-          </cell>
-          <cell r="W1056">
-            <v>-332236.40287706297</v>
-          </cell>
-          <cell r="X1056">
-            <v>-377525.5906428512</v>
+          <cell r="O1056" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P1056" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q1056" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="R1056" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="S1056" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="T1056" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="U1056" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="V1056" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="W1056" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1056" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1085">
@@ -6783,11 +6783,11 @@
           <cell r="V1087">
             <v>1000000</v>
           </cell>
-          <cell r="W1087">
-            <v>1000000</v>
-          </cell>
-          <cell r="X1087">
-            <v>1000000</v>
+          <cell r="W1087" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1087" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1088">
@@ -6861,34 +6861,34 @@
         </row>
         <row r="1108">
           <cell r="C1108">
-            <v>147650</v>
+            <v>232885</v>
           </cell>
           <cell r="D1108">
-            <v>130952.255</v>
+            <v>175687.255</v>
           </cell>
           <cell r="E1108">
-            <v>70230.200000000012</v>
+            <v>74870.200000000012</v>
           </cell>
           <cell r="F1108">
-            <v>101533.46</v>
+            <v>117918.46</v>
           </cell>
           <cell r="G1108">
-            <v>185973.53000000003</v>
+            <v>202358.53000000003</v>
           </cell>
           <cell r="H1108">
-            <v>228222.72500000001</v>
+            <v>394457.72500000003</v>
           </cell>
           <cell r="I1108">
-            <v>180010.31</v>
+            <v>267675.31000000006</v>
           </cell>
           <cell r="J1108">
-            <v>187916.315</v>
-          </cell>
-          <cell r="K1108">
-            <v>171374.2115</v>
-          </cell>
-          <cell r="L1108">
-            <v>183102.36350000001</v>
+            <v>273151.31499999994</v>
+          </cell>
+          <cell r="K1108" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="L1108" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="1113">
@@ -6898,34 +6898,34 @@
         </row>
         <row r="1118">
           <cell r="C1118">
-            <v>13467</v>
+            <v>20756</v>
           </cell>
           <cell r="D1118">
-            <v>10729</v>
+            <v>13969</v>
           </cell>
           <cell r="E1118">
-            <v>8220</v>
+            <v>7492</v>
           </cell>
           <cell r="F1118">
-            <v>21107</v>
+            <v>32446</v>
           </cell>
           <cell r="G1118">
-            <v>13425</v>
+            <v>24764</v>
           </cell>
           <cell r="H1118">
-            <v>10000</v>
+            <v>14860</v>
           </cell>
           <cell r="I1118">
-            <v>26038</v>
+            <v>52574</v>
           </cell>
           <cell r="J1118">
-            <v>18092</v>
+            <v>45632</v>
           </cell>
           <cell r="K1118">
-            <v>15525</v>
+            <v>19776</v>
           </cell>
           <cell r="L1118">
-            <v>15902</v>
+            <v>20388</v>
           </cell>
         </row>
         <row r="1121">
@@ -6985,43 +6985,43 @@
           <cell r="J1122">
             <v>0</v>
           </cell>
-          <cell r="K1122">
-            <v>0</v>
-          </cell>
-          <cell r="L1122">
-            <v>0</v>
+          <cell r="K1122" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L1122" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1123">
           <cell r="C1123">
-            <v>31184</v>
+            <v>47197</v>
           </cell>
           <cell r="D1123">
-            <v>27940</v>
+            <v>36542</v>
           </cell>
           <cell r="E1123">
-            <v>15633</v>
+            <v>16613</v>
           </cell>
           <cell r="F1123">
-            <v>22098</v>
+            <v>25374</v>
           </cell>
           <cell r="G1123">
-            <v>38483</v>
+            <v>41551</v>
           </cell>
           <cell r="H1123">
-            <v>46340</v>
+            <v>75995</v>
           </cell>
           <cell r="I1123">
-            <v>37359</v>
+            <v>53538</v>
           </cell>
           <cell r="J1123">
-            <v>38848</v>
-          </cell>
-          <cell r="K1123">
-            <v>35724</v>
-          </cell>
-          <cell r="L1123">
-            <v>37942</v>
+            <v>54528</v>
+          </cell>
+          <cell r="K1123" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L1123" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1124">
@@ -7049,28 +7049,28 @@
           <cell r="J1124">
             <v>10000</v>
           </cell>
-          <cell r="K1124">
-            <v>10000</v>
-          </cell>
-          <cell r="L1124">
-            <v>10000</v>
+          <cell r="K1124" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L1124" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1166">
           <cell r="O1166">
-            <v>1520000</v>
+            <v>2020000</v>
           </cell>
           <cell r="P1166">
             <v>895000</v>
           </cell>
           <cell r="Q1166">
-            <v>1020000</v>
+            <v>1019999</v>
           </cell>
           <cell r="R1166">
-            <v>1820000</v>
+            <v>1740000</v>
           </cell>
           <cell r="S1166">
-            <v>1020000</v>
+            <v>940000</v>
           </cell>
           <cell r="T1166">
             <v>1020000</v>
@@ -7082,138 +7082,138 @@
             <v>1020000</v>
           </cell>
           <cell r="W1166">
-            <v>1220000</v>
+            <v>1120000</v>
           </cell>
           <cell r="X1166">
-            <v>1220000</v>
+            <v>1120000</v>
           </cell>
         </row>
         <row r="1187">
-          <cell r="O1187">
-            <v>1520000</v>
-          </cell>
-          <cell r="P1187">
-            <v>895000</v>
-          </cell>
-          <cell r="Q1187">
-            <v>1020000</v>
-          </cell>
-          <cell r="R1187">
-            <v>1820000</v>
-          </cell>
-          <cell r="S1187">
-            <v>1020000</v>
-          </cell>
-          <cell r="T1187">
-            <v>1020000</v>
-          </cell>
-          <cell r="U1187">
-            <v>2503750</v>
-          </cell>
-          <cell r="V1187">
-            <v>1020000</v>
-          </cell>
-          <cell r="W1187">
-            <v>1220000</v>
-          </cell>
-          <cell r="X1187">
-            <v>1220000</v>
+          <cell r="O1187" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P1187" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q1187" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="R1187" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="S1187" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="T1187" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="U1187" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="V1187" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="W1187" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1187" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1188">
-          <cell r="O1188">
-            <v>1.78E-2</v>
-          </cell>
-          <cell r="P1188">
-            <v>2.12E-2</v>
-          </cell>
-          <cell r="Q1188">
-            <v>4.1200000000000001E-2</v>
-          </cell>
-          <cell r="R1188">
-            <v>-5.7999999999999996E-3</v>
-          </cell>
-          <cell r="S1188">
-            <v>1.95E-2</v>
-          </cell>
-          <cell r="T1188">
-            <v>3.04E-2</v>
-          </cell>
-          <cell r="U1188">
-            <v>-1.2200000000000001E-2</v>
-          </cell>
-          <cell r="V1188">
-            <v>3.2000000000000002E-3</v>
-          </cell>
-          <cell r="W1188">
-            <v>1.24E-2</v>
-          </cell>
-          <cell r="X1188">
-            <v>1.06E-2</v>
+          <cell r="O1188" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P1188" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q1188" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="R1188" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="S1188" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="T1188" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="U1188" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="V1188" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="W1188" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1188" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1189">
-          <cell r="O1189">
-            <v>7.7056603791485503E-2</v>
-          </cell>
-          <cell r="P1189">
-            <v>7.0081577816321863E-2</v>
-          </cell>
-          <cell r="Q1189">
-            <v>8.8453667831070781E-2</v>
-          </cell>
-          <cell r="R1189">
-            <v>7.4178852043418786E-2</v>
-          </cell>
-          <cell r="S1189">
-            <v>7.264255918053325E-2</v>
-          </cell>
-          <cell r="T1189">
-            <v>0.12464808743721467</v>
-          </cell>
-          <cell r="U1189">
-            <v>8.4263500226452598E-2</v>
-          </cell>
-          <cell r="V1189">
-            <v>8.102058105740155E-2</v>
-          </cell>
-          <cell r="W1189">
-            <v>6.9477051715888402E-2</v>
-          </cell>
-          <cell r="X1189">
-            <v>7.054946290550658E-2</v>
+          <cell r="O1189" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P1189" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q1189" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="R1189" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="S1189" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="T1189" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="U1189" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="V1189" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="W1189" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1189" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1191">
-          <cell r="O1191">
-            <v>-437235.57355793187</v>
-          </cell>
-          <cell r="P1191">
-            <v>-396980.61134954175</v>
-          </cell>
-          <cell r="Q1191">
-            <v>-291160.92228470219</v>
-          </cell>
-          <cell r="R1191">
-            <v>-489570.57440004277</v>
-          </cell>
-          <cell r="S1191">
-            <v>-361638.23488572304</v>
-          </cell>
-          <cell r="T1191">
-            <v>-659776.42445069575</v>
-          </cell>
-          <cell r="U1191">
-            <v>-1116545.0831285887</v>
-          </cell>
-          <cell r="V1191">
-            <v>-846932.27430339169</v>
-          </cell>
-          <cell r="W1191">
-            <v>-330354.98107825237</v>
-          </cell>
-          <cell r="X1191">
-            <v>-373658.31751425471</v>
+          <cell r="O1191" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P1191" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q1191" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="R1191" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="S1191" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="T1191" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="U1191" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="V1191" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="W1191" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1191" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1220">
@@ -7246,11 +7246,11 @@
           <cell r="V1222">
             <v>1000000</v>
           </cell>
-          <cell r="W1222">
-            <v>1000000</v>
-          </cell>
-          <cell r="X1222">
-            <v>1000000</v>
+          <cell r="W1222" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1222" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1223">
@@ -7324,34 +7324,34 @@
         </row>
         <row r="1243">
           <cell r="C1243">
-            <v>147650</v>
+            <v>232885</v>
           </cell>
           <cell r="D1243">
-            <v>132622.0295</v>
+            <v>181407.0295</v>
           </cell>
           <cell r="E1243">
-            <v>77972.180000000022</v>
+            <v>90671.680000000008</v>
           </cell>
           <cell r="F1243">
-            <v>106145.114</v>
+            <v>129415.114</v>
           </cell>
           <cell r="G1243">
-            <v>182141.17700000003</v>
+            <v>205411.17700000003</v>
           </cell>
           <cell r="H1243">
-            <v>220165.45250000001</v>
+            <v>378300.45250000001</v>
           </cell>
           <cell r="I1243">
-            <v>176774.27900000001</v>
+            <v>264196.2790000001</v>
           </cell>
           <cell r="J1243">
-            <v>183889.68350000001</v>
-          </cell>
-          <cell r="K1243">
-            <v>169001.79035</v>
-          </cell>
-          <cell r="L1243">
-            <v>179557.12715000001</v>
+            <v>269124.68349999993</v>
+          </cell>
+          <cell r="K1243" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="L1243" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="1248">
@@ -7361,34 +7361,34 @@
         </row>
         <row r="1253">
           <cell r="C1253">
-            <v>13121</v>
+            <v>19681</v>
           </cell>
           <cell r="D1253">
-            <v>10657</v>
+            <v>13573</v>
           </cell>
           <cell r="E1253">
-            <v>8397</v>
+            <v>7742</v>
           </cell>
           <cell r="F1253">
-            <v>19997</v>
+            <v>30202</v>
           </cell>
           <cell r="G1253">
-            <v>13083</v>
+            <v>23288</v>
           </cell>
           <cell r="H1253">
-            <v>10000</v>
+            <v>14374</v>
           </cell>
           <cell r="I1253">
-            <v>24435</v>
+            <v>48317</v>
           </cell>
           <cell r="J1253">
-            <v>17283</v>
+            <v>42069</v>
           </cell>
           <cell r="K1253">
-            <v>14973</v>
+            <v>18799</v>
           </cell>
           <cell r="L1253">
-            <v>15312</v>
+            <v>19350</v>
           </cell>
         </row>
         <row r="1256">
@@ -7448,43 +7448,43 @@
           <cell r="J1257">
             <v>0</v>
           </cell>
-          <cell r="K1257">
-            <v>0</v>
-          </cell>
-          <cell r="L1257">
-            <v>0</v>
+          <cell r="K1257" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L1257" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1258">
           <cell r="C1258">
-            <v>31714</v>
+            <v>47995</v>
           </cell>
           <cell r="D1258">
-            <v>28747</v>
+            <v>38260</v>
           </cell>
           <cell r="E1258">
-            <v>17561</v>
+            <v>20232</v>
           </cell>
           <cell r="F1258">
-            <v>23420</v>
+            <v>28109</v>
           </cell>
           <cell r="G1258">
-            <v>38400</v>
+            <v>42832</v>
           </cell>
           <cell r="H1258">
-            <v>45613</v>
+            <v>74415</v>
           </cell>
           <cell r="I1258">
-            <v>37370</v>
+            <v>53802</v>
           </cell>
           <cell r="J1258">
-            <v>38735</v>
-          </cell>
-          <cell r="K1258">
-            <v>35871</v>
-          </cell>
-          <cell r="L1258">
-            <v>37905</v>
+            <v>54709</v>
+          </cell>
+          <cell r="K1258" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L1258" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1259">
@@ -7512,28 +7512,28 @@
           <cell r="J1259">
             <v>10000</v>
           </cell>
-          <cell r="K1259">
-            <v>10000</v>
-          </cell>
-          <cell r="L1259">
-            <v>10000</v>
+          <cell r="K1259" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L1259" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1301">
           <cell r="O1301">
-            <v>1520000</v>
+            <v>2020000</v>
           </cell>
           <cell r="P1301">
             <v>895000</v>
           </cell>
           <cell r="Q1301">
-            <v>1020000</v>
+            <v>1019999</v>
           </cell>
           <cell r="R1301">
-            <v>1820000</v>
+            <v>1740000</v>
           </cell>
           <cell r="S1301">
-            <v>1020000</v>
+            <v>940000</v>
           </cell>
           <cell r="T1301">
             <v>1020000</v>
@@ -7544,139 +7544,139 @@
           <cell r="V1301">
             <v>1020000</v>
           </cell>
-          <cell r="W1301">
-            <v>1220000</v>
-          </cell>
-          <cell r="X1301">
-            <v>1220000</v>
+          <cell r="W1301" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="X1301" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="1322">
-          <cell r="O1322">
-            <v>1520000</v>
-          </cell>
-          <cell r="P1322">
-            <v>895000</v>
-          </cell>
-          <cell r="Q1322">
-            <v>1020000</v>
-          </cell>
-          <cell r="R1322">
-            <v>1820000</v>
-          </cell>
-          <cell r="S1322">
-            <v>1020000</v>
-          </cell>
-          <cell r="T1322">
-            <v>1020000</v>
-          </cell>
-          <cell r="U1322">
-            <v>2503750</v>
-          </cell>
-          <cell r="V1322">
-            <v>1020000</v>
-          </cell>
-          <cell r="W1322">
-            <v>1220000</v>
-          </cell>
-          <cell r="X1322">
-            <v>1220000</v>
+          <cell r="O1322" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P1322" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q1322" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="R1322" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="S1322" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="T1322" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="U1322" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="V1322" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="W1322" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1322" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1323">
-          <cell r="O1323">
-            <v>1.77E-2</v>
-          </cell>
-          <cell r="P1323">
-            <v>2.0400000000000001E-2</v>
-          </cell>
-          <cell r="Q1323">
-            <v>3.8300000000000001E-2</v>
-          </cell>
-          <cell r="R1323">
-            <v>5.9999999999999995E-4</v>
-          </cell>
-          <cell r="S1323">
-            <v>1.9199999999999998E-2</v>
-          </cell>
-          <cell r="T1323">
-            <v>2.9000000000000001E-2</v>
-          </cell>
-          <cell r="U1323">
-            <v>-8.3000000000000001E-3</v>
-          </cell>
-          <cell r="V1323">
-            <v>3.7000000000000002E-3</v>
-          </cell>
-          <cell r="W1323">
-            <v>1.7899999999999999E-2</v>
-          </cell>
-          <cell r="X1323">
-            <v>1.12E-2</v>
+          <cell r="O1323" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P1323" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q1323" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="R1323" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="S1323" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="T1323" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="U1323" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="V1323" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="W1323" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1323" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1324">
-          <cell r="O1324">
-            <v>0.11019179044589082</v>
-          </cell>
-          <cell r="P1324">
-            <v>8.359845911703491E-2</v>
-          </cell>
-          <cell r="Q1324">
-            <v>8.5513300698123837E-2</v>
-          </cell>
-          <cell r="R1324">
-            <v>9.5706217060103099E-2</v>
-          </cell>
-          <cell r="S1324">
-            <v>9.4599443492341326E-2</v>
-          </cell>
-          <cell r="T1324">
-            <v>0.11065374864982057</v>
-          </cell>
-          <cell r="U1324">
-            <v>7.9734123397398715E-2</v>
-          </cell>
-          <cell r="V1324">
-            <v>7.8776818838192958E-2</v>
-          </cell>
-          <cell r="W1324">
-            <v>8.8469582086127638E-2</v>
-          </cell>
-          <cell r="X1324">
-            <v>9.1693703919091693E-2</v>
+          <cell r="O1324" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P1324" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q1324" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="R1324" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="S1324" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="T1324" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="U1324" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="V1324" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="W1324" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1324" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1326">
-          <cell r="O1326">
-            <v>-682467.41219448659</v>
-          </cell>
-          <cell r="P1326">
-            <v>-520607.52698330639</v>
-          </cell>
-          <cell r="Q1326">
-            <v>-299599.61674158997</v>
-          </cell>
-          <cell r="R1326">
-            <v>-557865.29703068139</v>
-          </cell>
-          <cell r="S1326">
-            <v>-516990.05777869321</v>
-          </cell>
-          <cell r="T1326">
-            <v>-581803.63192638545</v>
-          </cell>
-          <cell r="U1326">
-            <v>-979651.00577136909</v>
-          </cell>
-          <cell r="V1326">
-            <v>-811491.80294842192</v>
-          </cell>
-          <cell r="W1326">
-            <v>-408699.37759018841</v>
-          </cell>
-          <cell r="X1326">
-            <v>-497459.01748827158</v>
+          <cell r="O1326" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P1326" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q1326" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="R1326" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="S1326" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="T1326" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="U1326" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="V1326" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="W1326" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1326" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1355">
@@ -7709,11 +7709,11 @@
           <cell r="V1357">
             <v>1000000</v>
           </cell>
-          <cell r="W1357">
-            <v>1000000</v>
-          </cell>
-          <cell r="X1357">
-            <v>1000000</v>
+          <cell r="W1357" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1357" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1358">
@@ -7787,34 +7787,34 @@
         </row>
         <row r="1378">
           <cell r="C1378">
-            <v>147650</v>
+            <v>232885</v>
           </cell>
           <cell r="D1378">
-            <v>134124.82655</v>
+            <v>186554.82655</v>
           </cell>
           <cell r="E1378">
-            <v>84939.962000000029</v>
+            <v>104893.012</v>
           </cell>
           <cell r="F1378">
-            <v>110295.6026</v>
+            <v>139762.10259999998</v>
           </cell>
           <cell r="G1378">
-            <v>178692.05930000002</v>
+            <v>208158.55930000002</v>
           </cell>
           <cell r="H1378">
-            <v>212913.90725000002</v>
+            <v>363758.90725000005</v>
           </cell>
           <cell r="I1378">
-            <v>173861.8511</v>
+            <v>261065.1511000001</v>
           </cell>
           <cell r="J1378">
-            <v>180265.71515</v>
-          </cell>
-          <cell r="K1378">
-            <v>166866.61131499999</v>
-          </cell>
-          <cell r="L1378">
-            <v>176366.41443500001</v>
+            <v>265500.71514999995</v>
+          </cell>
+          <cell r="K1378" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="L1378" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="1383">
@@ -7824,66 +7824,66 @@
         </row>
         <row r="1388">
           <cell r="C1388">
-            <v>12809</v>
+            <v>18713</v>
           </cell>
           <cell r="D1388">
-            <v>10592</v>
+            <v>13216</v>
           </cell>
           <cell r="E1388">
-            <v>8557</v>
+            <v>7967</v>
           </cell>
           <cell r="F1388">
-            <v>18998</v>
+            <v>28182</v>
           </cell>
           <cell r="G1388">
-            <v>12775</v>
+            <v>21960</v>
           </cell>
           <cell r="H1388">
-            <v>10000</v>
+            <v>13937</v>
           </cell>
           <cell r="I1388">
-            <v>22992</v>
+            <v>44486</v>
           </cell>
           <cell r="J1388">
-            <v>16555</v>
+            <v>38863</v>
           </cell>
           <cell r="K1388">
-            <v>14476</v>
+            <v>17920</v>
           </cell>
           <cell r="L1388">
-            <v>14781</v>
+            <v>18416</v>
           </cell>
         </row>
         <row r="1390">
           <cell r="C1390">
-            <v>12529</v>
+            <v>17842</v>
           </cell>
           <cell r="D1390">
-            <v>10533</v>
+            <v>12895</v>
           </cell>
           <cell r="E1390">
-            <v>8701</v>
+            <v>8170</v>
           </cell>
           <cell r="F1390">
-            <v>18099</v>
+            <v>26364</v>
           </cell>
           <cell r="G1390">
-            <v>12498</v>
+            <v>20765</v>
           </cell>
           <cell r="H1390">
-            <v>10000</v>
+            <v>13544</v>
           </cell>
           <cell r="I1390">
-            <v>21693</v>
+            <v>41038</v>
           </cell>
           <cell r="J1390">
-            <v>15900</v>
+            <v>35977</v>
           </cell>
           <cell r="K1390">
-            <v>14029</v>
+            <v>17129</v>
           </cell>
           <cell r="L1390">
-            <v>14304</v>
+            <v>17575</v>
           </cell>
         </row>
         <row r="1391">
@@ -7943,43 +7943,43 @@
           <cell r="J1392">
             <v>0</v>
           </cell>
-          <cell r="K1392">
-            <v>0</v>
-          </cell>
-          <cell r="L1392">
-            <v>0</v>
+          <cell r="K1392" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L1392" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1393">
           <cell r="C1393">
-            <v>32098</v>
+            <v>48574</v>
           </cell>
           <cell r="D1393">
-            <v>29398</v>
+            <v>39719</v>
           </cell>
           <cell r="E1393">
-            <v>19267</v>
+            <v>23446</v>
           </cell>
           <cell r="F1393">
-            <v>24560</v>
+            <v>30527</v>
           </cell>
           <cell r="G1393">
-            <v>38195</v>
+            <v>43875</v>
           </cell>
           <cell r="H1393">
-            <v>44783</v>
+            <v>72693</v>
           </cell>
           <cell r="I1393">
-            <v>37254</v>
+            <v>53866</v>
           </cell>
           <cell r="J1393">
-            <v>38500</v>
-          </cell>
-          <cell r="K1393">
-            <v>35887</v>
-          </cell>
-          <cell r="L1393">
-            <v>37742</v>
+            <v>54693</v>
+          </cell>
+          <cell r="K1393" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L1393" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1394">
@@ -8007,28 +8007,28 @@
           <cell r="J1394">
             <v>10000</v>
           </cell>
-          <cell r="K1394">
-            <v>10000</v>
-          </cell>
-          <cell r="L1394">
-            <v>10000</v>
+          <cell r="K1394" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L1394" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1436">
           <cell r="O1436">
-            <v>1520000</v>
+            <v>2020000</v>
           </cell>
           <cell r="P1436">
             <v>895000</v>
           </cell>
           <cell r="Q1436">
-            <v>1020000</v>
+            <v>1019999</v>
           </cell>
           <cell r="R1436">
-            <v>1820000</v>
+            <v>1740000</v>
           </cell>
           <cell r="S1436">
-            <v>1020000</v>
+            <v>940000</v>
           </cell>
           <cell r="T1436">
             <v>1020000</v>
@@ -8039,171 +8039,171 @@
           <cell r="V1436">
             <v>1020000</v>
           </cell>
-          <cell r="W1436">
-            <v>1220000</v>
-          </cell>
-          <cell r="X1436">
-            <v>1220000</v>
+          <cell r="W1436" t="e">
+            <v>#REF!</v>
+          </cell>
+          <cell r="X1436" t="e">
+            <v>#REF!</v>
           </cell>
         </row>
         <row r="1457">
-          <cell r="O1457">
-            <v>1520000</v>
-          </cell>
-          <cell r="P1457">
-            <v>895000</v>
-          </cell>
-          <cell r="Q1457">
-            <v>1020000</v>
-          </cell>
-          <cell r="R1457">
-            <v>1820000</v>
-          </cell>
-          <cell r="S1457">
-            <v>1020000</v>
-          </cell>
-          <cell r="T1457">
-            <v>1020000</v>
-          </cell>
-          <cell r="U1457">
-            <v>2503750</v>
-          </cell>
-          <cell r="V1457">
-            <v>1020000</v>
-          </cell>
-          <cell r="W1457">
-            <v>1220000</v>
-          </cell>
-          <cell r="X1457">
-            <v>1220000</v>
+          <cell r="O1457" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P1457" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q1457" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="R1457" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="S1457" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="T1457" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="U1457" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="V1457" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="W1457" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1457" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1458">
-          <cell r="O1458">
-            <v>1.7100000000000001E-2</v>
-          </cell>
-          <cell r="P1458">
-            <v>1.9099999999999999E-2</v>
-          </cell>
-          <cell r="Q1458">
-            <v>3.5200000000000002E-2</v>
-          </cell>
-          <cell r="R1458">
-            <v>1.6000000000000001E-3</v>
-          </cell>
-          <cell r="S1458">
-            <v>1.8499999999999999E-2</v>
-          </cell>
-          <cell r="T1458">
-            <v>2.7300000000000001E-2</v>
-          </cell>
-          <cell r="U1458">
-            <v>-7.7000000000000002E-3</v>
-          </cell>
-          <cell r="V1458">
-            <v>3.8999999999999998E-3</v>
-          </cell>
-          <cell r="W1458">
-            <v>1.7600000000000001E-2</v>
-          </cell>
-          <cell r="X1458">
-            <v>1.5800000000000002E-2</v>
+          <cell r="O1458" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P1458" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q1458" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="R1458" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="S1458" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="T1458" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="U1458" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="V1458" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="W1458" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1458" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1459">
-          <cell r="O1459">
-            <v>0.12082762232559063</v>
-          </cell>
-          <cell r="P1459">
-            <v>7.7516063770975044E-2</v>
-          </cell>
-          <cell r="Q1459">
-            <v>8.6040445596845094E-2</v>
-          </cell>
-          <cell r="R1459">
-            <v>0.12622909506814947</v>
-          </cell>
-          <cell r="S1459">
-            <v>0.10801568162747356</v>
-          </cell>
-          <cell r="T1459">
-            <v>9.7343536535950445E-2</v>
-          </cell>
-          <cell r="U1459">
-            <v>0.23768049444229114</v>
-          </cell>
-          <cell r="V1459">
-            <v>0.15541574752388584</v>
-          </cell>
-          <cell r="W1459">
-            <v>0.1016835425158422</v>
-          </cell>
-          <cell r="X1459">
-            <v>0.11502181883937576</v>
+          <cell r="O1459" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P1459" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q1459" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="R1459" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="S1459" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="T1459" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="U1459" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="V1459" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="W1459" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1459" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1461">
-          <cell r="O1461">
-            <v>-765373.03084263019</v>
-          </cell>
-          <cell r="P1461">
-            <v>-487884.9651317416</v>
-          </cell>
-          <cell r="Q1461">
-            <v>-331883.61646809569</v>
-          </cell>
-          <cell r="R1461">
-            <v>-694614.17935965327</v>
-          </cell>
-          <cell r="S1461">
-            <v>-617596.45944746828</v>
-          </cell>
-          <cell r="T1461">
-            <v>-508023.44896856137</v>
-          </cell>
-          <cell r="U1461">
-            <v>-2564617.5686917971</v>
-          </cell>
-          <cell r="V1461">
-            <v>-1621553.4865152712</v>
-          </cell>
-          <cell r="W1461">
-            <v>-486310.79371611471</v>
-          </cell>
-          <cell r="X1461">
-            <v>-610017.21011469932</v>
+          <cell r="O1461" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P1461" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q1461" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="R1461" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="S1461" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="T1461" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="U1461" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="V1461" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="W1461" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1461" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="1476">
-          <cell r="O1476">
-            <v>0.11887046340994879</v>
-          </cell>
-          <cell r="P1476">
-            <v>7.7461917420595772E-2</v>
-          </cell>
-          <cell r="Q1476">
-            <v>8.2271506602630495E-2</v>
-          </cell>
-          <cell r="R1476">
-            <v>0.17191681831852887</v>
-          </cell>
-          <cell r="S1476">
-            <v>0.10708318352559347</v>
-          </cell>
-          <cell r="T1476">
-            <v>9.8351022856130538E-2</v>
-          </cell>
-          <cell r="U1476">
-            <v>0.23918756586926618</v>
-          </cell>
-          <cell r="V1476">
-            <v>0.24419892340729021</v>
-          </cell>
-          <cell r="W1476">
-            <v>0.1108203700721595</v>
-          </cell>
-          <cell r="X1476">
-            <v>0.11448090477698074</v>
+          <cell r="O1476" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="P1476" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="Q1476" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="R1476" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="S1476" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="T1476" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="U1476" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="V1476" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="W1476" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="X1476" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
       </sheetData>
@@ -8235,37 +8235,37 @@
         </row>
         <row r="17">
           <cell r="M17">
-            <v>0.26094374776852186</v>
+            <v>0.2797718166184559</v>
           </cell>
         </row>
         <row r="18">
           <cell r="M18">
-            <v>8.5273458090852239E-2</v>
+            <v>0.30865547913741304</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="M19">
-            <v>-9.3156060822116263E-2</v>
+          <cell r="M19" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="20">
-          <cell r="M20">
-            <v>-7.1015951116842738E-2</v>
+          <cell r="M20" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="M21">
-            <v>-6.972603213395881E-2</v>
+          <cell r="M21" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="22">
-          <cell r="M22">
-            <v>-7.7347896328846991E-2</v>
+          <cell r="M22" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
         <row r="23">
-          <cell r="M23">
-            <v>-0.11573072513635076</v>
+          <cell r="M23" t="e">
+            <v>#VALUE!</v>
           </cell>
         </row>
       </sheetData>
